--- a/data/Citizen Science Dashboard_v2.xlsx
+++ b/data/Citizen Science Dashboard_v2.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Notizen" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1446,7 +1446,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1458,7 +1458,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1482,7 +1482,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1532,43 +1532,43 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1803,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+    <sheetView tabSelected="1" topLeftCell="U12" zoomScale="83" workbookViewId="0">
+      <selection activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2214,37 +2214,37 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="32">
+      <c r="A7" s="35">
         <v>2</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="32" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="32" t="s">
         <v>108</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -2297,37 +2297,37 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A8" s="33"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="35"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="34"/>
     </row>
     <row r="9" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="32" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="43" t="s">
         <v>120</v>
       </c>
       <c r="G9" s="40" t="s">
@@ -2336,13 +2336,13 @@
       <c r="H9" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="43" t="s">
         <v>120</v>
       </c>
       <c r="L9" s="40" t="s">
@@ -2395,19 +2395,19 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A10" s="33"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F10" s="39"/>
+      <c r="F10" s="44"/>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
       <c r="L10" s="41"/>
       <c r="W10" s="41"/>
     </row>
@@ -2470,31 +2470,31 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A12" s="32">
+      <c r="A12" s="35">
         <v>3</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="32" t="s">
         <v>82</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="32" t="s">
         <v>149</v>
       </c>
       <c r="J12" s="8" t="s">
@@ -2553,75 +2553,75 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A13" s="33"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:27" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="32">
+      <c r="A14" s="35">
         <v>4</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="32" t="s">
         <v>82</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="32" t="s">
         <v>163</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
       <c r="O14" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:27" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="43"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="44"/>
+      <c r="F15" s="33"/>
       <c r="G15" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
     </row>
     <row r="16" spans="1:27" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="33"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="F16" s="35"/>
+      <c r="F16" s="34"/>
       <c r="G16" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="6">
@@ -2779,31 +2779,31 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A19" s="32">
+      <c r="A19" s="35">
         <v>7</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="32" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="H19" s="34" t="s">
+      <c r="H19" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="I19" s="34" t="s">
+      <c r="I19" s="32" t="s">
         <v>219</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -2853,17 +2853,17 @@
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A20" s="33"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:27" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="6">
@@ -2920,36 +2920,36 @@
       </c>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A23" s="32" t="s">
+    <row r="23" spans="1:27" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="A23" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="32" t="s">
         <v>30</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="H23" s="34" t="s">
+      <c r="H23" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="I23" s="34"/>
+      <c r="I23" s="32"/>
       <c r="K23" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" s="9" t="s">
         <v>244</v>
       </c>
       <c r="O23" s="1" t="s">
@@ -2958,7 +2958,7 @@
       <c r="P23" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="Q23" s="9" t="s">
         <v>247</v>
       </c>
       <c r="R23" s="1" t="s">
@@ -2990,44 +2990,44 @@
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A24" s="33"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:27" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="32" t="s">
         <v>82</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="H25" s="34" t="s">
+      <c r="H25" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="I25" s="34"/>
+      <c r="I25" s="32"/>
       <c r="K25" s="1" t="s">
         <v>264</v>
       </c>
@@ -3072,78 +3072,78 @@
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A26" s="33"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:27" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="32">
+      <c r="A27" s="35">
         <v>44994</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="32" t="s">
         <v>82</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
     </row>
     <row r="28" spans="1:27" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="33"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A29" s="32">
+      <c r="A29" s="35">
         <v>10</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="32" t="s">
         <v>82</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G29" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="H29" s="34" t="s">
+      <c r="H29" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="I29" s="34"/>
+      <c r="I29" s="32"/>
       <c r="N29" s="1" t="s">
         <v>282</v>
       </c>
@@ -3188,17 +3188,17 @@
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A30" s="33"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
     </row>
     <row r="31" spans="1:27" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="6">
@@ -3281,58 +3281,58 @@
       </c>
     </row>
     <row r="34" spans="1:27" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="32">
+      <c r="A34" s="35">
         <v>14</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="32" t="s">
         <v>231</v>
       </c>
       <c r="F34" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34" t="s">
+      <c r="G34" s="32"/>
+      <c r="H34" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="I34" s="34"/>
+      <c r="I34" s="32"/>
       <c r="K34" s="1" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:27" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="43"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
       <c r="F35" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
     </row>
     <row r="36" spans="1:27" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="33"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
       <c r="F36" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:27" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="6">
@@ -3619,14 +3619,67 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
@@ -3643,67 +3696,14 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1"/>
